--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/57_Mardin_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/57_Mardin_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7D5B896-96F2-4E41-81B7-4942BDC99BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92037E5A-0A22-48FB-8856-078EE71F8506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{5D7CD175-0DE6-4AF6-8F62-D133F02F20F9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="677" xr2:uid="{68DE0D82-DB6A-4ECC-B09A-A5362787659C}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -971,14 +971,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{0C733CCD-B506-4C60-85E5-D53FDCE826A1}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6E398712-2EFE-40DF-BCCB-FA6E23260614}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{349870F9-6FF9-4AEE-8473-784C3FDF8ADF}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{B208B941-1994-416E-A433-47DFA6283621}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{35612C95-86C3-4888-9F3D-82A5796376C4}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{0BFCC434-2D2C-4E0C-82B3-1FDCB72ADEE5}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{06D4868E-AEBE-4A7C-9DAB-C801D84EEAD3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{EE09AF5F-775F-42DB-BD78-2A973D8C0FE2}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5D402D66-C62F-4859-9272-6C293569C2A3}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{C4CC1D10-C08B-4397-9BC9-1714A6E223B6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{21CF4B97-FFF8-48BC-B8C1-FF9617713D5E}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{E695960D-5868-4749-8670-E6145B881658}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{0D79314C-A8C5-4B98-9102-78AE4ECEF84C}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{AD0E48EB-D6A7-4212-B7CB-3176BE9FE459}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{E2516E8B-6019-4043-A3E8-F20C5AF67E5C}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{0A3887A1-716D-45D6-A167-FE64AE139C5C}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,7 +1348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE45461C-7728-4E5E-A7EB-DD70FD6A9644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFD0257-3F3A-40BA-9F9B-CEFCB66D75D0}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2588,18 +2588,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{69D8C4B9-4C1C-4924-9F45-F7BBFF624CB6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{07E4F5FB-3EF7-41B6-920B-88CD48298DD6}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{DA5462D1-3996-46A2-9C58-2F1E406FBDA6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{781F8D4E-C905-414D-8B5F-7695A679D85E}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9BEDCD91-FC28-4104-B5BC-90F5521B453A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C611C7D1-A280-4D52-861C-98AA5414A250}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{82E2FC0B-46A8-48BD-8CCD-8AF32BE34CDC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9392B2DC-4087-46F9-B058-5A368D843151}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48628058-28A0-4E3F-A391-A414A527620F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{F490AEE9-A847-4C72-98B3-D52AA7696EC9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{95A949B4-6053-42AF-8D1C-512749BF2FDB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7878BEA2-AF95-41F4-BA37-DE411D08E658}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{008B8A16-7EE6-4A44-A38C-141EC1CFF04F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{752BF715-5EE0-4FA2-B665-F40746946ACC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{39910B83-E4B3-48FC-894E-A83C115B9359}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7089066A-FB42-4368-BD5B-B6AC4DB18968}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{18AB5BF6-7CDB-49BC-A90B-1C9658BB83E4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{203687D3-3A5A-4255-A9DA-1169DF6CB609}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E6AB220F-A0D7-4037-8FA9-C72140B0BBCC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DFA1BE3E-1510-45F3-849D-4901494F2420}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DDFEB87A-2B5F-4880-A3D6-80A5A716BE39}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E9A4CA18-5F55-424A-9FDF-50ED5D3B73D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{654FC70F-7B1E-4A0B-8011-2A2E12F26521}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{693576F7-6C99-49F9-AF9A-8BBA7FA90953}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2612,7 +2612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96F90159-9DBC-4A79-9FC1-5FC7CA34161E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F76BD7-D5F0-4332-9198-FEE7317D2E39}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3838,18 +3838,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7AAE4328-83AE-4602-92FD-88AB7193924B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BB1E895-E461-4A73-BF14-52D735F2483B}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FFDE3DA1-F2F6-43FB-8C6E-EE18F614E2C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C5C5DE9D-5082-4D76-AC1F-55EC20906FE8}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{722A389A-6A7A-4023-B82E-A77E49EBAF5B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C56B8E11-29D8-4211-A76F-91DFFF15A1B0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E9530E68-3309-41EF-A50A-4ECEEDD1F999}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{071903DB-5763-4095-AAA0-DC84B3B94776}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3E92CEDB-C123-45FF-84AC-A6890420B823}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B1BA8A86-B6BC-4141-A7EA-26CD757BFB4E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E9C70654-700C-4B2D-BD19-BD0CC2CB52E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40C9DE8B-D4D0-4F2A-A537-44BB6B56F9A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2274A95E-B35B-4256-8AE9-246F09A01AED}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{47A6D4ED-099F-4A4C-A165-333C4700A504}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{917B267B-4B47-48CA-A3DE-9A4B2A3E2FDE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{73328F32-93E5-46AD-8A40-593153226ACE}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{9C60C9BB-861E-43F0-A9F1-3D291AD3E851}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C48FBFE5-44C9-416A-BB17-1FD8D2280D94}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E84892EF-B288-41C2-A3B0-E7A222114F5C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{359E6FFF-42C1-4934-801F-9933F73955C7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{63EE4EDD-54F2-4A5E-B1AF-99E7BD82B25D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{26CAD2EC-49BE-4059-9F5B-07B1781E3574}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2D2B7356-506A-4163-B3A0-7FC2C125AB63}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A1625266-3EE5-43CD-8E3D-3333B38B73DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3862,7 +3862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FB7CF93-3730-4A27-82C2-F6AED41512E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E1C0A7-7EF9-41A7-BA64-2A498640BAE8}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5088,18 +5088,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{08408AA8-D04F-4F9D-957A-32DC4B753191}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E4851772-73C2-41C5-B5F3-B5AC8D4C43D1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B6F05F88-6370-4DB7-9C04-345967B5FC03}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5217703F-A41A-42E9-BE5F-3ACAF98C54FC}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{517569F2-213B-4D35-AB89-281B3DDAE8E1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2F53CFF8-A152-49BC-8792-CF3AEBD089C7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{16355F49-0B12-425F-8F9D-3BF47C929C4F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AFE7D98C-E09C-4BDF-90A7-5A9E7B49F41F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5671C30F-4C04-49C2-8BE2-04F0C9ED2CB7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B61E321-07ED-432B-AA7F-F553769F2FFE}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AAC6FCBE-9C03-4BBA-8217-80FF05A64C37}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BEC07164-E36B-45B9-9730-9D775EEB2246}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{634831D1-A3E6-481F-92EC-F7BA64265EB1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4F4EA878-265C-41CA-8580-47E01A695106}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9E12DAEF-55B5-496D-ABFB-1D3E0A33336A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBDE3EF8-8F52-457D-A631-A3385055E98D}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E5D2902A-3B35-40DD-A00A-ACB577A7C357}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7E1DB620-9E84-4575-82C7-03FD10736F9A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BED94F50-301F-47BE-8153-C08D8814ED2C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CCE6E6F0-C667-4AEA-8BA2-A46205AA641B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BA9A6829-71B7-43E2-B631-59E213CCCB52}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{684728B9-DC56-470B-B917-69B493D281AD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3505EDBB-9C81-40D1-8908-CF319B63EC83}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{29AA13BE-6A95-4277-9329-37D1BB9DE09F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5112,7 +5112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5609E7D5-5B2B-4B7F-BA6A-EE0F1CB196E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3C5C229-0C01-4651-9A3E-A507187A53AC}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -6346,18 +6346,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4F0EC771-DED5-4D5D-B1EA-82DBE6E6F71E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8DB15F73-E48C-4742-BE5B-4991A8019124}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FF40B62D-BF18-494A-AA9C-E2EB48224093}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{17D3C23E-7726-4A4A-9586-99744045BB98}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{96B2E92B-CD1E-4FCF-9CED-594113BA598D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0B32A9F2-3EC7-440D-942C-920E73C32812}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9DD8AD1B-98D7-4733-A089-939FA89341D6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F3FE5F95-B703-43B4-9237-A5ACB43F2073}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5818CB45-547D-4FDE-803A-F6AB09ACCAA8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7FF654A7-775E-49BB-ABDB-7E59AB4CD9E0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39DC706E-E919-42AA-837B-EEB9C8D77497}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CA9161F-F8C5-4415-B673-1C69497D743D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B7EA8A17-92F6-4C7A-8A44-486F0C8E3D50}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B994EF99-C84F-4017-A066-D9D5369E75C5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7CEFB5A2-1EDE-43B6-A3D3-CC02DB099E93}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6AF54B8-F852-477F-9671-6BEA91DFDAD1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AA2BF73F-28D9-492F-9DFB-26ED26262055}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{599B8315-20A0-4C6B-A83F-1366123C2284}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{11515AD5-A7A0-4753-B61A-9BFDB7D36D75}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A09B8DB4-AEFC-4C71-B995-17B58E1FA879}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8B74A364-824A-425B-9022-2571E8CF91B3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B85C9F29-BC55-46C0-A1DE-12E38AAD0454}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{961A7E60-13F3-4CCF-87FC-35FCC9D23CD2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F62575A1-CDFC-4ED4-8071-92E36A481471}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6370,7 +6370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B03EF6C-6F0F-4525-808D-FC8C39783AA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF59D4FE-8566-441E-A571-1AE4A2C4B4FD}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7607,18 +7607,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0133DC01-E663-4114-BA09-1A41CE395049}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DA6C721-6AD3-4979-A1FA-3D19F36A94DC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{432C14FA-ADD7-4019-8578-926EFEFDFC91}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2CFB24AD-7036-455D-BB02-1B2CB4364786}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{721112CD-2524-41A0-B679-04DC2CBDFFA0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A2053E6E-BF56-47F4-BA56-7FB0F29B2300}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{936703BE-16BA-4302-BCD1-5EE7C9DBD4AE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15AF2404-A20B-43D2-8965-5DFBC2955CBC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CB176982-6B0D-4CD9-B12F-2C7F3820FA2E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{00D140B9-04B4-49AB-93E8-90C48065906E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{71E9CA9B-617C-4403-84D8-E40DFE003A17}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{026EA884-1890-453D-9D10-7357A35CD3AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B349387-B2B6-4DCA-994A-3A285CEF017F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AD75ED9-838E-4873-A94B-C0B96966EDF1}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BE3C14F1-83DC-406C-A870-7DBF4EE0193D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F703842-D28F-4EF6-8257-C0E4D4386123}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{31ECFED8-58AF-4F46-B9D9-33BEA983E4DF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{58A3612A-A1F4-4E30-BB9F-9B227F7E6E4D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0B97F35A-C872-4343-8D87-5D5B932AE747}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8389119B-FEC8-476A-8E1B-F821640DA785}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70AC20A3-9900-417C-A6D3-E4DD329E1EEB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A5B99AF8-DC0C-4FC8-98DE-F09171B0C025}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D4CB36D3-C637-4387-8AB9-908B31D24F17}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{87A3097B-6135-4366-B03D-26A771835698}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7631,7 +7631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFDEC9C8-1E3F-42B8-948C-13D87B716E89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401C7645-E0C8-4FEB-AF02-56670F8854D6}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8868,18 +8868,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88DAF302-8A13-4F83-8E1A-5D556C533F9C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{906C85D8-000C-4549-92B0-61A328A2F574}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4E6B82DE-4EE4-4F4A-AE20-601FDABA7A55}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C4B5D3D5-6418-4951-B6CC-D683C6EFD217}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5A308D5E-0F42-45BB-9231-4288C3779CBC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85AC16EF-B1E6-4A80-B3E8-F233D791EFAF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90725D82-9E91-492B-91A4-22FDAE893836}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{90699769-22BF-44D7-857B-D34E2E76A475}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{70AF28C4-6273-4757-8685-4E442E200ABF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D44D8BDA-94A7-46D8-A36F-4BE9AFD24BD1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{651C5DE2-A67A-437D-BE1F-60C26959EA86}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D8423BC3-FDF3-402B-95A8-ABC87587B0B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CF75E911-BA9F-4048-AE2B-D147E45B2AF9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{34D491DB-5CDD-4CF0-8150-13097E2CC667}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EAEF3B69-6499-427F-A311-74C214F79DC3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C596E66A-31AD-448B-B128-0F83A59DB93F}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8B533406-24D0-4444-BC74-09A739A9E41A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{04A2661D-61D5-4FAC-B0AE-AC6C97B2AEEB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63ED6268-C54D-4E0C-A7C5-1A5DC6803245}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E2E6F050-A155-4E8D-BB65-8C735B13E52F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F59C48F5-6D2B-4D90-8A2A-E6C993939335}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BD4E8BA4-6B97-420C-8BDE-4EC46D42F2B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{59647B01-325A-4CDA-AD69-46477E2D3D96}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF9AD0DC-9E6F-4B21-88EE-34D7D074398B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8892,7 +8892,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38288653-87A1-44A4-9115-E0C09DBBCC90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D0034B-DB0B-40C3-982D-585B9EC360F1}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10129,18 +10129,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0502C7C5-71EC-48F2-9871-081F27C47334}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85D11D7B-7825-4F35-86C0-D0977BE8EA7C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BED36668-DD82-4E2D-85A0-DE9A94E77D6A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1A3FE21B-A893-4709-A38D-6D196F4A9AAB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F39B6681-2B12-491A-BE5A-7302D48F33E7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CB74FA9E-604C-40E9-91A2-827DBAF0CB01}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{707B5DC7-FAA1-42A0-A718-97136286A1C2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7978C10-0529-4865-A3E1-BDE6463ABD31}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DA614475-7CAD-4D32-8273-1CB2260E1AA7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7EF2496B-ED6D-4E83-8F50-1644C693A4DA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{62692022-754D-4B71-84CC-8C0E230BB08B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C83F684F-9536-45AB-AD95-4B75571C29D4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C8B59264-49FB-4A7E-9450-B41D9851DB33}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B22EC5B6-2C27-4CB9-BB36-C8729EAE6A60}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3EFB0BAE-79A5-4614-88A0-8F14CDABBDA9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D944BB6B-FE06-4E7C-ADFF-811BED643F94}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6E22AD42-C2AC-4E05-87E7-D143EF915974}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A03ACF6-0590-4B10-803B-4E52261275D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4BB17FE9-E58D-426C-812A-C076B5C52BA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A9C8150-4FFD-44B7-908D-AD4DE4C57071}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{085E69EC-1395-4F92-9B97-753AD10CBCE5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CD92EF6-47E1-4E2E-83DE-D067672E67B0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{89267AEB-3132-46F1-8294-DF42CC976826}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50C73952-E8EB-4B24-BCC8-7F94AD1B80E1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10153,7 +10153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BAB080-F139-46AE-B19D-71DED419124E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE3A012-7E7E-4E49-8F62-11D8D63FAC77}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11391,18 +11391,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9BC4162C-4395-409E-86EF-ECAB355F5716}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A8A809E8-22D5-49DD-AD55-571A1D9AC009}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B1D6F725-2248-4370-9778-D96AAC29A3B3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DFFB6A3A-B458-45E4-9DFC-50CA20DBF3B3}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{F4642783-5140-4D36-919E-3EB6745CA708}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{414138F0-0986-4D04-AAD9-F037615267B8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B13E6916-A2A3-400E-A626-3B8E36E3533F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B955F2E8-C7A2-4DF7-AB74-D8D160394571}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{54E69645-E103-49BD-A9B6-49CA16E6B6B8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0F27DAE9-E26C-43EB-8079-BC7080FEB477}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{36DF2F3E-000F-4717-9701-30F0020DF172}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3E47CC5-4ADE-4B90-8C68-E69BB1E38096}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96AB9635-8CA8-4446-AC68-8FCD50DA5E04}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{69665C09-F9B3-49BF-B2AE-502E731EB780}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{312EC03A-D739-46CA-9862-4D0DA8AF154A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7F526A70-D738-49B6-938C-67D86CFDF3B1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{ADAFD57C-3641-40B8-819D-801EE794A27F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81964D06-46FF-4318-9976-FDE668785B4B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F1E3A39-BEE0-4551-BA59-67ACC94EE968}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3294C6B3-B46F-4DB4-A6FE-C298089E1077}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACEBAB07-62AC-4E47-A8EB-5517136C9C66}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BDAFED4B-C9BF-4F1A-BD6F-E49E5D1F3A1E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D2D0689-120F-4475-A1A1-2C3EDB1B5EB5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{680F0EF2-4925-41B3-B3D4-BDF832CEA217}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11415,7 +11415,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD155B0-A86E-4028-B4DA-4ACABA53FEF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBED8D3F-5E9D-4693-97BE-966F3E127D93}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12653,18 +12653,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E8757B2F-C27B-4D14-969C-53E17C8D1ADB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1256B86-1FB1-425F-A5A9-5CB3B83ACA08}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{329A6C5A-87C6-48DE-B8D4-8B18DA513C86}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12BCBF3A-8896-49F9-8F68-1D2A58005011}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{AA7646D6-2F4E-4E44-B63B-2DCAB3E0C583}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FACC8411-B191-4BF9-BCDB-4BC27468C7BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F40F0F49-7CF3-43EB-9CD8-12883EAE8B55}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7886B306-A69F-4B80-AD13-EAF3942B11D0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9C64797A-F344-458C-B613-582CB350CD32}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CB76B244-CC20-42A3-849D-7A32F1A49D51}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1CDB6F5-38FF-4112-A070-E71C964509FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7B2E00BD-346C-402C-A4D7-11D3946FEAAB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6FF4F6A9-E245-46B7-891E-BCE3127FA9B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{89243027-B14D-4D7F-9449-EAFDE23EDF57}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E481B6ED-9D5A-4430-B2A7-75A738298AD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6438F7B7-0E90-4AA2-AA18-043FDC2CB825}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3F3259AA-770C-4B9B-9716-F5B24ECA097C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CA49CD6B-96F1-47DE-8288-8B0328006C4F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{22593745-BE3F-451D-87A9-429D6E988FB1}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EE06BEBE-6695-4B72-BA2B-49D909FB0B3A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5ABFF0B2-052E-419A-A813-C7BF1E780DDD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CE3D7700-6C5D-47CC-BB70-1CE52B163900}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5B10920E-3123-43F5-B052-D0622BE5939D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5150BE4D-0739-466E-8C6D-A7B9F2B43AEA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12677,7 +12677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF9D97D-5B40-43ED-BD6F-2B74C3FD14E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A503D77-93A7-49D6-BA48-63A8251C368A}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -13915,18 +13915,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D712C90-9478-438D-872D-33CDED117B6C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F210256-DEC0-4838-9898-96A7FD0A1839}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B1D6A6E-B8E8-45F2-825B-05E1D2B85AA5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{135598FC-6DB0-460D-906C-A0C1928265F2}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BC4E8943-54C1-44A4-B007-D461A920D67C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CD1271EC-9B84-4175-A83C-CDEF88824DE4}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CE2C0A04-457B-4B07-9434-60098B8DD770}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7CB65434-9B09-4003-B5DF-9182EF643402}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E615F3B-88BA-4461-B78A-7B5FC2FB0F36}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{013EFB2D-9C2B-434F-BAF9-EE614FCBD99E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C60953F1-1A7C-4732-942D-30B1CD2B8C0B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54B84F5C-6D2C-42E9-A533-76DA0C9EE54C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4415FB3-DE14-4AC2-92A0-98780C94C267}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{867C540D-7A9A-4F66-91BD-E8B4336BE772}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B2D761C9-67C2-4650-B324-FAA36C46DBA2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4BFFACA7-19C4-4EE0-B210-90608E65AE27}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5760E7D2-3983-4699-A4A5-8BB2BFF1A4B1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3E5D523E-37A8-441C-A62B-86624CDDF60A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0065CB52-D988-48DE-A89D-BDD336A82FCE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0CF2B007-3B29-4CA3-98C5-DF646301AB14}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CF39FE75-7EC8-4ADE-9554-13F5812EE973}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{4EA6E60C-603D-441B-B433-C0A9E7344A9C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FC335007-87FC-499F-8837-98A8C07B1787}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C0794FF2-2C8F-4D32-A954-3DB10D8EFEC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13939,7 +13939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABD40DD-346A-451C-B827-D7BD0AAD8AEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97238F66-E3F8-40DB-BE2E-7DD34A7AA919}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15173,18 +15173,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EFFAE991-97CC-4B06-BDF7-2F3D65CAFF04}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9FA0C79C-DF9F-4789-8067-138E9D4BD5B1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7B7D798C-5E79-4FE4-A8A5-B0F8172692A5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EA682A63-8B73-42D2-A6BA-58F98578AE8C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{98AE9E4D-25BF-45FF-973E-E6F34F619935}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{871B93BA-93BB-4978-93D0-7B71FDF928B9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{71E6B01F-1DFD-4D01-982A-B6648FF1957A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8B526EF8-BFF4-41A7-8487-7BB26467E84E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4C1D125-2455-4268-BC95-C72F2D796718}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B7E435B-D734-4E0C-A064-C13CD8EF8B68}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4C521516-5030-454B-A3F9-3495DAD332A4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AEC16434-1B08-49C5-92C7-15EA2BBBD087}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{4654B3F6-5BC2-4F15-A6F6-8F5FC82620A8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3733F2B8-D5E0-41B9-985C-7A3052B78FAA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{28EA39E7-EA2E-4127-A3FF-8C428D634296}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2C55E0BC-CA1B-43E7-91AF-28F044B3EA37}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0CBB0443-C1CF-48EF-BA1C-179C3A46E0C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11097AD6-04C8-4CCA-B533-5D28CF0F9D0E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3CE7D7FD-E9F1-400A-9A14-BD4B5F1AAA09}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FFD24B91-BA80-4CD3-837C-8114DB8FF433}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ACAF7FCA-BC00-4CFE-9506-176922A7F882}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6D4A0C5-9163-4398-A8CE-AF9323B703CB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DEFDEDF-AB10-4C75-B642-4167005B822F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{40F9C85C-03C8-408A-9D72-4E26CD6A13B8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15197,7 +15197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBA6FFC-81BC-4372-834B-41A528794A51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF889B2-2E2A-492A-9017-7C414B9E359D}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16431,18 +16431,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E4FE0E09-0D39-405C-9C7C-DBFAE213E4E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{EFB5BDF9-0E87-48ED-B8F9-B3B888E6B45C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{602B8A63-DE9E-4413-8213-F24A14ED1BF7}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8F06B56-8310-4B2A-B094-8A1A59D9258C}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{02E79D7B-3755-44F9-BEDA-ADD922BDE7D4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A7AE86B-43AA-48C1-814C-667B8F24B9A9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FB7BD23-748C-4882-9958-D8224460C410}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6C14B6A8-1732-4B13-95BE-48D6BF28BC2B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{003719E7-2A9C-40BC-B787-3C4F809A18A9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{206AEA3B-A55D-46EA-931B-8518E9301FDD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D5CFC0EE-212F-4C1E-8B9B-A14A3D1A9D14}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B379A39F-BD1D-4403-859C-724B43F94C47}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{869F5080-044D-4DF6-9314-73C35EA3EA46}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5E275DB3-0AA9-4A1B-B82A-618500205C40}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6AAE3D01-AC24-403A-94AF-24D39E691C99}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C847DBD5-9EDF-4FCC-A748-39B3C5D840AA}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{04A32EA6-0A31-4B98-B625-8310135289FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{46303E74-9765-4FE4-89EE-C40967CD43F9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5A5BF7F-7E23-4318-82C9-2F2BDBED036B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4B9504A2-4183-42B7-B37C-F080AFF989D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F3D782F7-E9DA-4A32-9D47-B71AF7CA67E7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{88BCFEBB-CE97-4E48-B509-58505C60E233}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ABDB70AE-314A-4EA1-8015-183DC0100655}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{64BC2A6A-E6EE-4EEF-B355-87159949E5F8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
